--- a/visualisation/lit-review-summary.xlsx
+++ b/visualisation/lit-review-summary.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt\git\thesis\visualisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattia\git\thesis\visualisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7F72DE-D9AB-478A-929A-A8DD69B89C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9176F6E-5B7F-479B-AFF2-6299B6908D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19455" yWindow="4620" windowWidth="18990" windowHeight="15345" xr2:uid="{F8EBACD6-E11F-4E05-96AF-190686C47C42}"/>
+    <workbookView xWindow="-24825" yWindow="2115" windowWidth="21600" windowHeight="12735" xr2:uid="{F8EBACD6-E11F-4E05-96AF-190686C47C42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Current State of the art</t>
   </si>
@@ -58,6 +57,42 @@
   </si>
   <si>
     <t>Material Recognition</t>
+  </si>
+  <si>
+    <t>Fast techniques that can produce real-time acoustic simulations</t>
+  </si>
+  <si>
+    <t>Lack of support for immersive platforms</t>
+  </si>
+  <si>
+    <t>Testing on \acrshort{XR} \acrshortpl{hmd}</t>
+  </si>
+  <si>
+    <t>Fast and generalisable techniques that can predict material semantics from any representation of geometry</t>
+  </si>
+  <si>
+    <t>Lack of benchmarking on material recognition on virtual reconstructions of real space</t>
+  </si>
+  <si>
+    <t>Implementation of material recognition that embeds into spatial understanding in \acrshort{XR} platforms.</t>
+  </si>
+  <si>
+    <t>Material recognition has been proven effective in sound rendering pipelines</t>
+  </si>
+  <si>
+    <t>Few example of integrating material recognition with sound rendering and only with a subset of techniques</t>
+  </si>
+  <si>
+    <t>Propose a generalisable integration of material recognition into sound rendering, working with diverse environments</t>
+  </si>
+  <si>
+    <t>Existing characterisation of psychoacoustics within sound rendering pipelines</t>
+  </si>
+  <si>
+    <t>Little testing conducted on \acrshort{xr} platforms</t>
+  </si>
+  <si>
+    <t>Studying the application of sound rendering pipelines in immersive application by evaluating psychoacoustic effects</t>
   </si>
 </sst>
 </file>
@@ -432,7 +467,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,20 +493,56 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
